--- a/data/pca/factorExposure/factorExposure_2015-05-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-05-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.02052004358542831</v>
+        <v>0.01169813727740763</v>
       </c>
       <c r="C2">
-        <v>0.02088723314857054</v>
+        <v>-0.05221934860970997</v>
       </c>
       <c r="D2">
-        <v>-0.1084074254060659</v>
+        <v>0.128218621138933</v>
       </c>
       <c r="E2">
-        <v>-0.01358782458903026</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.02100308927578</v>
+      </c>
+      <c r="F2">
+        <v>0.0339677415341702</v>
+      </c>
+      <c r="G2">
+        <v>0.1177582357238739</v>
+      </c>
+      <c r="H2">
+        <v>-0.09038792833861044</v>
+      </c>
+      <c r="I2">
+        <v>-0.08663750066665395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.04331728344408738</v>
+        <v>0.01763247151179414</v>
       </c>
       <c r="C4">
-        <v>0.07064857498809438</v>
+        <v>-0.1056462709087117</v>
       </c>
       <c r="D4">
-        <v>-0.1212268972082044</v>
+        <v>0.132232780930929</v>
       </c>
       <c r="E4">
-        <v>-0.09073284570881375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01045905612380585</v>
+      </c>
+      <c r="F4">
+        <v>0.09216695255502916</v>
+      </c>
+      <c r="G4">
+        <v>0.003021992719418471</v>
+      </c>
+      <c r="H4">
+        <v>-0.05019218507024843</v>
+      </c>
+      <c r="I4">
+        <v>0.07846312212620118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.0222177789442628</v>
+        <v>0.02794867310714848</v>
       </c>
       <c r="C6">
-        <v>0.01049932580769644</v>
+        <v>-0.03482756244719789</v>
       </c>
       <c r="D6">
-        <v>-0.1389708452363241</v>
+        <v>0.1241524817176734</v>
       </c>
       <c r="E6">
-        <v>-0.04751855250008501</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.06099277346147339</v>
+      </c>
+      <c r="F6">
+        <v>0.04604458199034286</v>
+      </c>
+      <c r="G6">
+        <v>-0.01181246202650981</v>
+      </c>
+      <c r="H6">
+        <v>-0.0434132792274249</v>
+      </c>
+      <c r="I6">
+        <v>0.02851042120911026</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.002166606549111009</v>
+        <v>0.008454938275037604</v>
       </c>
       <c r="C7">
-        <v>0.0226627537198484</v>
+        <v>-0.03788552389488627</v>
       </c>
       <c r="D7">
-        <v>-0.1102360844905061</v>
+        <v>0.09585482874762162</v>
       </c>
       <c r="E7">
-        <v>-0.01117550320976354</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.05440708824406904</v>
+      </c>
+      <c r="F7">
+        <v>0.009084337327618439</v>
+      </c>
+      <c r="G7">
+        <v>-0.01778322237718584</v>
+      </c>
+      <c r="H7">
+        <v>-0.07605383684076385</v>
+      </c>
+      <c r="I7">
+        <v>0.01142487150059674</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.001660523222060058</v>
+        <v>-0.008265726623383979</v>
       </c>
       <c r="C8">
-        <v>0.0258964830195391</v>
+        <v>-0.03644297022262846</v>
       </c>
       <c r="D8">
-        <v>-0.0795997951280612</v>
+        <v>0.07478772971114742</v>
       </c>
       <c r="E8">
-        <v>-0.0277299185452791</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.03726028036210544</v>
+      </c>
+      <c r="F8">
+        <v>0.05001354678883915</v>
+      </c>
+      <c r="G8">
+        <v>0.05952491912238796</v>
+      </c>
+      <c r="H8">
+        <v>-0.01612888593970101</v>
+      </c>
+      <c r="I8">
+        <v>-0.009801455213710916</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03497699435229064</v>
+        <v>0.01322362742776717</v>
       </c>
       <c r="C9">
-        <v>0.05993002493739301</v>
+        <v>-0.08715754034527823</v>
       </c>
       <c r="D9">
-        <v>-0.1237185433382334</v>
+        <v>0.1129625843524351</v>
       </c>
       <c r="E9">
-        <v>-0.07402486715007589</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01233005116333111</v>
+      </c>
+      <c r="F9">
+        <v>0.06114787852051048</v>
+      </c>
+      <c r="G9">
+        <v>-0.01944896905061887</v>
+      </c>
+      <c r="H9">
+        <v>-0.05872473821750049</v>
+      </c>
+      <c r="I9">
+        <v>0.04436873241770407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.177963462256852</v>
+        <v>0.2420479208972058</v>
       </c>
       <c r="C10">
-        <v>-0.1666758127803691</v>
+        <v>0.08935932103611285</v>
       </c>
       <c r="D10">
-        <v>0.005414965964085403</v>
+        <v>-0.00533792083933271</v>
       </c>
       <c r="E10">
-        <v>-0.04398807360048744</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01114215525333929</v>
+      </c>
+      <c r="F10">
+        <v>0.04230336359393021</v>
+      </c>
+      <c r="G10">
+        <v>-8.188124057599262e-05</v>
+      </c>
+      <c r="H10">
+        <v>0.03522435015122599</v>
+      </c>
+      <c r="I10">
+        <v>-0.06670245094478709</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.01923465559637546</v>
+        <v>0.01026045595515166</v>
       </c>
       <c r="C11">
-        <v>0.04183107779801992</v>
+        <v>-0.05811043067845795</v>
       </c>
       <c r="D11">
-        <v>-0.04584645329001839</v>
+        <v>0.0401893433294262</v>
       </c>
       <c r="E11">
-        <v>0.0166828443303028</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.02013599149143306</v>
+      </c>
+      <c r="F11">
+        <v>-0.01469751148209017</v>
+      </c>
+      <c r="G11">
+        <v>-0.01597731776243054</v>
+      </c>
+      <c r="H11">
+        <v>-0.04899836158065544</v>
+      </c>
+      <c r="I11">
+        <v>0.06157328814612699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.01900252292430631</v>
+        <v>0.01009796816645475</v>
       </c>
       <c r="C12">
-        <v>0.04137379931921958</v>
+        <v>-0.05085406620000469</v>
       </c>
       <c r="D12">
-        <v>-0.06007857539295831</v>
+        <v>0.04507412602152198</v>
       </c>
       <c r="E12">
-        <v>0.005515846075728132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.01558255591643502</v>
+      </c>
+      <c r="F12">
+        <v>-0.01710171478149303</v>
+      </c>
+      <c r="G12">
+        <v>-0.03424400732216232</v>
+      </c>
+      <c r="H12">
+        <v>-0.06570488664849618</v>
+      </c>
+      <c r="I12">
+        <v>0.03656756208599311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.003299505767875252</v>
+        <v>-0.002972892390113357</v>
       </c>
       <c r="C13">
-        <v>0.02220336123990814</v>
+        <v>-0.04774289193815509</v>
       </c>
       <c r="D13">
-        <v>-0.1372565668967587</v>
+        <v>0.147067258756024</v>
       </c>
       <c r="E13">
-        <v>-0.04271043211584871</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.03967796169493296</v>
+      </c>
+      <c r="F13">
+        <v>0.03421739549238943</v>
+      </c>
+      <c r="G13">
+        <v>0.01378149843400012</v>
+      </c>
+      <c r="H13">
+        <v>-0.07411537153094482</v>
+      </c>
+      <c r="I13">
+        <v>-0.08988281188088756</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.005457706526342063</v>
+        <v>0.001651911574734698</v>
       </c>
       <c r="C14">
-        <v>0.01550734203489715</v>
+        <v>-0.03113835816533648</v>
       </c>
       <c r="D14">
-        <v>-0.09219277872332274</v>
+        <v>0.09861291081238854</v>
       </c>
       <c r="E14">
-        <v>-0.01638373728222736</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.05102099006929382</v>
+      </c>
+      <c r="F14">
+        <v>0.03502195078114851</v>
+      </c>
+      <c r="G14">
+        <v>-0.0006004816150590595</v>
+      </c>
+      <c r="H14">
+        <v>-0.1341302387578515</v>
+      </c>
+      <c r="I14">
+        <v>0.002159883064978104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.002848426914475154</v>
+        <v>-0.002778210325786397</v>
       </c>
       <c r="C15">
-        <v>0.01055661856294394</v>
+        <v>-0.02773402138487241</v>
       </c>
       <c r="D15">
-        <v>-0.03323862723747298</v>
+        <v>0.06115131655874678</v>
       </c>
       <c r="E15">
-        <v>0.001439133681357175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.01143595466817629</v>
+      </c>
+      <c r="F15">
+        <v>0.00737893062550129</v>
+      </c>
+      <c r="G15">
+        <v>0.01284535396718658</v>
+      </c>
+      <c r="H15">
+        <v>-0.04259656146498766</v>
+      </c>
+      <c r="I15">
+        <v>0.02335880510289985</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.01816072935195892</v>
+        <v>0.00948786707860599</v>
       </c>
       <c r="C16">
-        <v>0.03731636216340507</v>
+        <v>-0.05080090758535122</v>
       </c>
       <c r="D16">
-        <v>-0.05406006628524689</v>
+        <v>0.04345085579928974</v>
       </c>
       <c r="E16">
-        <v>0.006240248636643552</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.0226576737512388</v>
+      </c>
+      <c r="F16">
+        <v>-0.008948685280605703</v>
+      </c>
+      <c r="G16">
+        <v>-0.0261181731381015</v>
+      </c>
+      <c r="H16">
+        <v>-0.0459206978504612</v>
+      </c>
+      <c r="I16">
+        <v>0.05838314964568042</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.003259013590773581</v>
+        <v>-0.000334072417096244</v>
       </c>
       <c r="C19">
-        <v>0.01807475069168478</v>
+        <v>-0.01705008881007912</v>
       </c>
       <c r="D19">
-        <v>-0.09582534860333568</v>
+        <v>0.06108578883894181</v>
       </c>
       <c r="E19">
-        <v>-0.04543031259487693</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.01230558293374876</v>
+      </c>
+      <c r="F19">
+        <v>0.0161802388184394</v>
+      </c>
+      <c r="G19">
+        <v>0.01088522834320312</v>
+      </c>
+      <c r="H19">
+        <v>-0.05642053959999067</v>
+      </c>
+      <c r="I19">
+        <v>-0.03679744051029243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.003064448269396938</v>
+        <v>0.005028992169596207</v>
       </c>
       <c r="C20">
-        <v>0.02427571332827415</v>
+        <v>-0.0420509817625195</v>
       </c>
       <c r="D20">
-        <v>-0.0803048413200166</v>
+        <v>0.08771780623175027</v>
       </c>
       <c r="E20">
-        <v>-0.03523395646297215</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02340216560443726</v>
+      </c>
+      <c r="F20">
+        <v>0.02628035647427214</v>
+      </c>
+      <c r="G20">
+        <v>-0.01631655186780574</v>
+      </c>
+      <c r="H20">
+        <v>-0.05504871626619222</v>
+      </c>
+      <c r="I20">
+        <v>0.04518726393142134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.005841079476813087</v>
+        <v>0.003516901501796686</v>
       </c>
       <c r="C21">
-        <v>0.02632042272051906</v>
+        <v>-0.04555809869776074</v>
       </c>
       <c r="D21">
-        <v>-0.153931605669753</v>
+        <v>0.12877316307457</v>
       </c>
       <c r="E21">
-        <v>-0.08594417812730634</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03075065781872345</v>
+      </c>
+      <c r="F21">
+        <v>0.09832678441504668</v>
+      </c>
+      <c r="G21">
+        <v>0.01219923991271364</v>
+      </c>
+      <c r="H21">
+        <v>-0.1982521826458155</v>
+      </c>
+      <c r="I21">
+        <v>-0.1409494186666279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.0005856116137477423</v>
+        <v>-0.01438901235574533</v>
       </c>
       <c r="C22">
-        <v>0.0638169389117197</v>
+        <v>-0.08933950810688623</v>
       </c>
       <c r="D22">
-        <v>-0.2586349892527424</v>
+        <v>0.2621710895207934</v>
       </c>
       <c r="E22">
-        <v>-0.002210693590759708</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.06035642488887744</v>
+      </c>
+      <c r="F22">
+        <v>0.009662639167922163</v>
+      </c>
+      <c r="G22">
+        <v>0.4058433214473316</v>
+      </c>
+      <c r="H22">
+        <v>0.375413990202954</v>
+      </c>
+      <c r="I22">
+        <v>0.05442869704372667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.0003002270318952211</v>
+        <v>-0.01117422770389227</v>
       </c>
       <c r="C23">
-        <v>0.06429247112440703</v>
+        <v>-0.09106135891948838</v>
       </c>
       <c r="D23">
-        <v>-0.2581356484017077</v>
+        <v>0.2648374048761564</v>
       </c>
       <c r="E23">
-        <v>-0.002482231763100465</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.05549728389305529</v>
+      </c>
+      <c r="F23">
+        <v>0.01288933630037502</v>
+      </c>
+      <c r="G23">
+        <v>0.3933758564566853</v>
+      </c>
+      <c r="H23">
+        <v>0.3605719604973037</v>
+      </c>
+      <c r="I23">
+        <v>0.04508553391026023</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02351563188645818</v>
+        <v>0.00990955126127472</v>
       </c>
       <c r="C24">
-        <v>0.05731562608435883</v>
+        <v>-0.0673579086614087</v>
       </c>
       <c r="D24">
-        <v>-0.06320311559592527</v>
+        <v>0.04646833466497733</v>
       </c>
       <c r="E24">
-        <v>0.00336567748924907</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.02926913897171399</v>
+      </c>
+      <c r="F24">
+        <v>-0.004880328190426286</v>
+      </c>
+      <c r="G24">
+        <v>-0.01548130743762341</v>
+      </c>
+      <c r="H24">
+        <v>-0.07230422786584219</v>
+      </c>
+      <c r="I24">
+        <v>0.05441260220956839</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.02421828764372364</v>
+        <v>0.01404133012786526</v>
       </c>
       <c r="C25">
-        <v>0.04891832268045986</v>
+        <v>-0.06182131901628067</v>
       </c>
       <c r="D25">
-        <v>-0.0576903833564977</v>
+        <v>0.04847876144409746</v>
       </c>
       <c r="E25">
-        <v>-0.002463546447026524</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.0145431342145679</v>
+      </c>
+      <c r="F25">
+        <v>-0.006132475774517176</v>
+      </c>
+      <c r="G25">
+        <v>-0.01692785693352384</v>
+      </c>
+      <c r="H25">
+        <v>-0.03703597896288172</v>
+      </c>
+      <c r="I25">
+        <v>0.03608003407217918</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.006422565646207106</v>
+        <v>0.01463359723553809</v>
       </c>
       <c r="C26">
-        <v>0.01434049027156845</v>
+        <v>-0.0273023116601279</v>
       </c>
       <c r="D26">
-        <v>-0.08345476184945019</v>
+        <v>0.06805506270290489</v>
       </c>
       <c r="E26">
-        <v>-0.02384011626921043</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.04395256558112123</v>
+      </c>
+      <c r="F26">
+        <v>0.04346377218885809</v>
+      </c>
+      <c r="G26">
+        <v>-0.01268694820829878</v>
+      </c>
+      <c r="H26">
+        <v>-0.1004184832771882</v>
+      </c>
+      <c r="I26">
+        <v>-0.02976186228264046</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2629724450608681</v>
+        <v>0.3201087285471196</v>
       </c>
       <c r="C28">
-        <v>-0.1925150486435882</v>
+        <v>0.08863559623316256</v>
       </c>
       <c r="D28">
-        <v>-0.01416923843354883</v>
+        <v>-0.0166135304893426</v>
       </c>
       <c r="E28">
-        <v>-0.05585636180710136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.04972443782999653</v>
+      </c>
+      <c r="F28">
+        <v>0.04618999833559355</v>
+      </c>
+      <c r="G28">
+        <v>0.05312318585266881</v>
+      </c>
+      <c r="H28">
+        <v>0.002648109098566168</v>
+      </c>
+      <c r="I28">
+        <v>-0.09359223724441208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.002004975517834007</v>
+        <v>0.001113676867835321</v>
       </c>
       <c r="C29">
-        <v>0.01997967759699235</v>
+        <v>-0.03638184981866711</v>
       </c>
       <c r="D29">
-        <v>-0.0949627822708109</v>
+        <v>0.1027471103069649</v>
       </c>
       <c r="E29">
-        <v>-0.02430827234164897</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.05816083244605369</v>
+      </c>
+      <c r="F29">
+        <v>0.03970387675863545</v>
+      </c>
+      <c r="G29">
+        <v>-0.0146932675584008</v>
+      </c>
+      <c r="H29">
+        <v>-0.1392445138983215</v>
+      </c>
+      <c r="I29">
+        <v>0.01480219055899415</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02220710505608745</v>
+        <v>0.01413964203547952</v>
       </c>
       <c r="C30">
-        <v>0.05865392426031517</v>
+        <v>-0.08727620336134763</v>
       </c>
       <c r="D30">
-        <v>-0.1637858877811655</v>
+        <v>0.1451383234404744</v>
       </c>
       <c r="E30">
-        <v>-0.03132597515283499</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05566145707545474</v>
+      </c>
+      <c r="F30">
+        <v>0.02711431398649002</v>
+      </c>
+      <c r="G30">
+        <v>0.01664699820016397</v>
+      </c>
+      <c r="H30">
+        <v>-0.05048409653933684</v>
+      </c>
+      <c r="I30">
+        <v>0.08144429900650103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.03600590275848502</v>
+        <v>0.008173908898393183</v>
       </c>
       <c r="C31">
-        <v>0.08496796555170395</v>
+        <v>-0.0949708289343499</v>
       </c>
       <c r="D31">
-        <v>-0.0673642400634008</v>
+        <v>0.03957028074606392</v>
       </c>
       <c r="E31">
-        <v>-0.01611066162413851</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.0197769229006539</v>
+      </c>
+      <c r="F31">
+        <v>0.0141648963399523</v>
+      </c>
+      <c r="G31">
+        <v>-0.005415866424695014</v>
+      </c>
+      <c r="H31">
+        <v>-0.04861029200733004</v>
+      </c>
+      <c r="I31">
+        <v>-0.03010830203305854</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01580161810439608</v>
+        <v>0.009402880043123779</v>
       </c>
       <c r="C32">
-        <v>0.03052987763441714</v>
+        <v>-0.04663668303168146</v>
       </c>
       <c r="D32">
-        <v>-0.08746082439053672</v>
+        <v>0.1027042733411214</v>
       </c>
       <c r="E32">
-        <v>-0.06863933749664587</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.0006540666729368826</v>
+      </c>
+      <c r="F32">
+        <v>0.0543935944705474</v>
+      </c>
+      <c r="G32">
+        <v>0.007676252852041008</v>
+      </c>
+      <c r="H32">
+        <v>-0.0535836015115511</v>
+      </c>
+      <c r="I32">
+        <v>-0.09420222341464185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.008726326976588272</v>
+        <v>0.005355376633859895</v>
       </c>
       <c r="C33">
-        <v>0.04001823082680545</v>
+        <v>-0.06096434069503969</v>
       </c>
       <c r="D33">
-        <v>-0.1341560370415947</v>
+        <v>0.1217356256989403</v>
       </c>
       <c r="E33">
-        <v>-0.04458566246093738</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.02903333670971038</v>
+      </c>
+      <c r="F33">
+        <v>0.02622888920429075</v>
+      </c>
+      <c r="G33">
+        <v>-0.008663260615256184</v>
+      </c>
+      <c r="H33">
+        <v>-0.06446446918100091</v>
+      </c>
+      <c r="I33">
+        <v>0.008806245086181162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02062244880401675</v>
+        <v>0.007447324899966256</v>
       </c>
       <c r="C34">
-        <v>0.05923230599161412</v>
+        <v>-0.06247373796518971</v>
       </c>
       <c r="D34">
-        <v>-0.05393309649387661</v>
+        <v>0.02701721256330114</v>
       </c>
       <c r="E34">
-        <v>0.04598232028116316</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.0294970091134278</v>
+      </c>
+      <c r="F34">
+        <v>-0.03979251661091964</v>
+      </c>
+      <c r="G34">
+        <v>-0.01813538913629627</v>
+      </c>
+      <c r="H34">
+        <v>-0.05345298501900968</v>
+      </c>
+      <c r="I34">
+        <v>0.02896552575734142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.002464977518745796</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.01152305012741358</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.03328649685524541</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.004018147011135596</v>
+      </c>
+      <c r="F35">
+        <v>0.01789100829057534</v>
+      </c>
+      <c r="G35">
+        <v>-0.008592223180229062</v>
+      </c>
+      <c r="H35">
+        <v>-0.05416799721687886</v>
+      </c>
+      <c r="I35">
+        <v>0.0240514871251716</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.006650905221898455</v>
+        <v>0.01129648834959049</v>
       </c>
       <c r="C36">
-        <v>0.005664356176597129</v>
+        <v>-0.02248736884316167</v>
       </c>
       <c r="D36">
-        <v>-0.08272405248382352</v>
+        <v>0.07493000100622488</v>
       </c>
       <c r="E36">
-        <v>-0.04778942344349434</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.02843476273598889</v>
+      </c>
+      <c r="F36">
+        <v>0.04962795781598201</v>
+      </c>
+      <c r="G36">
+        <v>-0.004517430864651774</v>
+      </c>
+      <c r="H36">
+        <v>-0.06702698113459521</v>
+      </c>
+      <c r="I36">
+        <v>-0.01672986081721891</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.00631949526915391</v>
+        <v>0.01190637765028208</v>
       </c>
       <c r="C38">
-        <v>0.00608665052868222</v>
+        <v>-0.02451881331572929</v>
       </c>
       <c r="D38">
-        <v>-0.08830679058805099</v>
+        <v>0.08660048531712972</v>
       </c>
       <c r="E38">
-        <v>-0.0107371091968699</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.005579507472351519</v>
+      </c>
+      <c r="F38">
+        <v>0.001677024676233618</v>
+      </c>
+      <c r="G38">
+        <v>0.01733743969895122</v>
+      </c>
+      <c r="H38">
+        <v>-0.06922110843941347</v>
+      </c>
+      <c r="I38">
+        <v>-0.004057786247305799</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.0154486811334925</v>
+        <v>0.00377231337828843</v>
       </c>
       <c r="C39">
-        <v>0.05754564005606852</v>
+        <v>-0.07747460783527892</v>
       </c>
       <c r="D39">
-        <v>-0.1154533103522409</v>
+        <v>0.09215139363786952</v>
       </c>
       <c r="E39">
-        <v>0.006833269721973468</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.05284506357743836</v>
+      </c>
+      <c r="F39">
+        <v>-0.005106717571325707</v>
+      </c>
+      <c r="G39">
+        <v>-0.02477593273529216</v>
+      </c>
+      <c r="H39">
+        <v>-0.1041130683568655</v>
+      </c>
+      <c r="I39">
+        <v>0.08094280822751095</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.0148573712356477</v>
+        <v>0.01292185110996253</v>
       </c>
       <c r="C40">
-        <v>0.02246624167399743</v>
+        <v>-0.03714089211900143</v>
       </c>
       <c r="D40">
-        <v>-0.1120500898001623</v>
+        <v>0.09571124321626263</v>
       </c>
       <c r="E40">
-        <v>0.003938882959153917</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.03859275301179804</v>
+      </c>
+      <c r="F40">
+        <v>-0.011583608100219</v>
+      </c>
+      <c r="G40">
+        <v>0.06255909318616466</v>
+      </c>
+      <c r="H40">
+        <v>-0.1068921181583716</v>
+      </c>
+      <c r="I40">
+        <v>-0.06396601372535037</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01003615900898205</v>
+        <v>0.01533017229630633</v>
       </c>
       <c r="C41">
-        <v>0.00377113856124233</v>
+        <v>-0.01926702577250565</v>
       </c>
       <c r="D41">
-        <v>-0.03842887893386944</v>
+        <v>0.04449026096000688</v>
       </c>
       <c r="E41">
-        <v>-0.02881425790010324</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.004972332848868303</v>
+      </c>
+      <c r="F41">
+        <v>0.02408807682703456</v>
+      </c>
+      <c r="G41">
+        <v>0.000597562353275447</v>
+      </c>
+      <c r="H41">
+        <v>-0.04479812735079369</v>
+      </c>
+      <c r="I41">
+        <v>-0.008335629665523613</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.001258994496097087</v>
+        <v>0.007954882737175557</v>
       </c>
       <c r="C43">
-        <v>0.003884298119517628</v>
+        <v>-0.01568396168208558</v>
       </c>
       <c r="D43">
-        <v>-0.05122726150425022</v>
+        <v>0.05079502992747798</v>
       </c>
       <c r="E43">
-        <v>-0.02106182363335775</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.0113548048381945</v>
+      </c>
+      <c r="F43">
+        <v>0.02005580917108688</v>
+      </c>
+      <c r="G43">
+        <v>0.002461397685049972</v>
+      </c>
+      <c r="H43">
+        <v>-0.05385836743275729</v>
+      </c>
+      <c r="I43">
+        <v>0.01524312744947661</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01758975795144408</v>
+        <v>0.01188686808547361</v>
       </c>
       <c r="C44">
-        <v>0.02484637557588876</v>
+        <v>-0.04926998368537003</v>
       </c>
       <c r="D44">
-        <v>-0.09200236105935479</v>
+        <v>0.1023716889801164</v>
       </c>
       <c r="E44">
-        <v>-0.04952526970284682</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.03563127773641523</v>
+      </c>
+      <c r="F44">
+        <v>0.03591123139321555</v>
+      </c>
+      <c r="G44">
+        <v>0.02885711459842788</v>
+      </c>
+      <c r="H44">
+        <v>-0.05353451565210048</v>
+      </c>
+      <c r="I44">
+        <v>0.04967591059581084</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.005835477773439979</v>
+        <v>-0.0006649320689922154</v>
       </c>
       <c r="C46">
-        <v>0.02885137336271914</v>
+        <v>-0.04175655224205706</v>
       </c>
       <c r="D46">
-        <v>-0.08357286954749796</v>
+        <v>0.071132502206094</v>
       </c>
       <c r="E46">
-        <v>-0.01975877103460328</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.04297012432498622</v>
+      </c>
+      <c r="F46">
+        <v>0.03249435354790363</v>
+      </c>
+      <c r="G46">
+        <v>0.002536561840595327</v>
+      </c>
+      <c r="H46">
+        <v>-0.1307641310169705</v>
+      </c>
+      <c r="I46">
+        <v>0.02233457506397553</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.07706639611782024</v>
+        <v>0.03125948119939838</v>
       </c>
       <c r="C47">
-        <v>0.1074878313000448</v>
+        <v>-0.1267876609057664</v>
       </c>
       <c r="D47">
-        <v>-0.05994045977714482</v>
+        <v>0.02550862549663494</v>
       </c>
       <c r="E47">
-        <v>-0.03395474331591749</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.008840462535525936</v>
+      </c>
+      <c r="F47">
+        <v>-0.002552221657961091</v>
+      </c>
+      <c r="G47">
+        <v>-0.0479618020600421</v>
+      </c>
+      <c r="H47">
+        <v>-0.05835127900255525</v>
+      </c>
+      <c r="I47">
+        <v>-0.07486292566525003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.008503143258106133</v>
+        <v>0.01300044258611173</v>
       </c>
       <c r="C48">
-        <v>0.01546410123722194</v>
+        <v>-0.03305218397944653</v>
       </c>
       <c r="D48">
-        <v>-0.08643936386290428</v>
+        <v>0.08038727984460833</v>
       </c>
       <c r="E48">
-        <v>-0.05777573987477046</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.02256820876916695</v>
+      </c>
+      <c r="F48">
+        <v>0.05912852869366669</v>
+      </c>
+      <c r="G48">
+        <v>-0.004700816385156036</v>
+      </c>
+      <c r="H48">
+        <v>-0.1112122532311953</v>
+      </c>
+      <c r="I48">
+        <v>0.002862943063394339</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.03338364847737028</v>
+        <v>0.01222195530840055</v>
       </c>
       <c r="C50">
-        <v>0.05836601645038295</v>
+        <v>-0.07607818395794094</v>
       </c>
       <c r="D50">
-        <v>-0.06281075937778102</v>
+        <v>0.0488434170529068</v>
       </c>
       <c r="E50">
-        <v>-0.01023066575924691</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01374231973448175</v>
+      </c>
+      <c r="F50">
+        <v>0.007827717518498683</v>
+      </c>
+      <c r="G50">
+        <v>0.003940394354556329</v>
+      </c>
+      <c r="H50">
+        <v>-0.03683404639157419</v>
+      </c>
+      <c r="I50">
+        <v>-0.04627884532280498</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.002593791485211527</v>
+        <v>-0.001108692293123966</v>
       </c>
       <c r="C51">
-        <v>0.004534499949687898</v>
+        <v>-0.01693770419593369</v>
       </c>
       <c r="D51">
-        <v>-0.05612186237599546</v>
+        <v>0.05728057370990593</v>
       </c>
       <c r="E51">
-        <v>-0.009657129475799308</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.03735670344859037</v>
+      </c>
+      <c r="F51">
+        <v>0.04082726065997951</v>
+      </c>
+      <c r="G51">
+        <v>0.02051845088261665</v>
+      </c>
+      <c r="H51">
+        <v>-0.05395095869538306</v>
+      </c>
+      <c r="I51">
+        <v>-0.01076168223389266</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1056178185023701</v>
+        <v>0.05225669696894333</v>
       </c>
       <c r="C53">
-        <v>0.1275163096070463</v>
+        <v>-0.1572994536686012</v>
       </c>
       <c r="D53">
-        <v>-0.004498080656061983</v>
+        <v>-0.02483119705247412</v>
       </c>
       <c r="E53">
-        <v>-0.05776443468030965</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02944458269494803</v>
+      </c>
+      <c r="F53">
+        <v>0.04851445534856216</v>
+      </c>
+      <c r="G53">
+        <v>-0.0002010361385651686</v>
+      </c>
+      <c r="H53">
+        <v>-0.009602043209017749</v>
+      </c>
+      <c r="I53">
+        <v>-0.03212673379981892</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.0101299670006008</v>
+        <v>0.009892199291470675</v>
       </c>
       <c r="C54">
-        <v>0.01964464593528942</v>
+        <v>-0.03735594497777828</v>
       </c>
       <c r="D54">
-        <v>-0.08973707444817283</v>
+        <v>0.07645378648721284</v>
       </c>
       <c r="E54">
-        <v>-0.008531581365241693</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01710525906600072</v>
+      </c>
+      <c r="F54">
+        <v>0.001135208228561862</v>
+      </c>
+      <c r="G54">
+        <v>0.009253576488140578</v>
+      </c>
+      <c r="H54">
+        <v>-0.07991483048337482</v>
+      </c>
+      <c r="I54">
+        <v>0.02264461982160144</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09291643323615875</v>
+        <v>0.04061530732153912</v>
       </c>
       <c r="C55">
-        <v>0.1080282818987692</v>
+        <v>-0.131802467421888</v>
       </c>
       <c r="D55">
-        <v>-0.00636673909158098</v>
+        <v>-0.03255666283714696</v>
       </c>
       <c r="E55">
-        <v>-0.008276694229321849</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.005777847500890194</v>
+      </c>
+      <c r="F55">
+        <v>0.01211735296467682</v>
+      </c>
+      <c r="G55">
+        <v>0.002195199649715038</v>
+      </c>
+      <c r="H55">
+        <v>-0.01700475829105095</v>
+      </c>
+      <c r="I55">
+        <v>-0.04859196643177869</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1311892036721988</v>
+        <v>0.0560682254190607</v>
       </c>
       <c r="C56">
-        <v>0.1467797448069958</v>
+        <v>-0.1911792731644592</v>
       </c>
       <c r="D56">
-        <v>-0.00274344598748806</v>
+        <v>-0.03336907708977803</v>
       </c>
       <c r="E56">
-        <v>-0.007170805443060839</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03037151856615904</v>
+      </c>
+      <c r="F56">
+        <v>0.01479637136114361</v>
+      </c>
+      <c r="G56">
+        <v>0.04869905271420092</v>
+      </c>
+      <c r="H56">
+        <v>-0.01504440559585244</v>
+      </c>
+      <c r="I56">
+        <v>-0.06506618312484101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.006480663959480806</v>
+        <v>0.005274844622161427</v>
       </c>
       <c r="C58">
-        <v>0.008995605131588674</v>
+        <v>-0.05483463631227031</v>
       </c>
       <c r="D58">
-        <v>-0.21632843497791</v>
+        <v>0.2834423223635644</v>
       </c>
       <c r="E58">
-        <v>-0.09311106167099908</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.01697556334564338</v>
+      </c>
+      <c r="F58">
+        <v>0.1078079392829355</v>
+      </c>
+      <c r="G58">
+        <v>0.1574141461774861</v>
+      </c>
+      <c r="H58">
+        <v>0.1024494972421953</v>
+      </c>
+      <c r="I58">
+        <v>0.05988880246450451</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.184949254872008</v>
+        <v>0.2539425999787104</v>
       </c>
       <c r="C59">
-        <v>-0.1436622501315676</v>
+        <v>0.05921476929665683</v>
       </c>
       <c r="D59">
-        <v>-0.04458132823310688</v>
+        <v>0.05677944493963218</v>
       </c>
       <c r="E59">
-        <v>-0.0373073266332521</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.02068963031976054</v>
+      </c>
+      <c r="F59">
+        <v>0.02346593475905116</v>
+      </c>
+      <c r="G59">
+        <v>0.007595193846103998</v>
+      </c>
+      <c r="H59">
+        <v>-0.004261902601324831</v>
+      </c>
+      <c r="I59">
+        <v>-0.06375849913218215</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1812502641230626</v>
+        <v>0.1479706521381266</v>
       </c>
       <c r="C60">
-        <v>0.106416347452205</v>
+        <v>-0.1749491280728193</v>
       </c>
       <c r="D60">
-        <v>-0.2192651040279147</v>
+        <v>0.09225424649772242</v>
       </c>
       <c r="E60">
-        <v>0.1350131816606982</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.1611763580121632</v>
+      </c>
+      <c r="F60">
+        <v>-0.2225109821071243</v>
+      </c>
+      <c r="G60">
+        <v>-0.218529657297315</v>
+      </c>
+      <c r="H60">
+        <v>0.2399042166094608</v>
+      </c>
+      <c r="I60">
+        <v>-0.07389548121892797</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.02583010613817974</v>
+        <v>0.01157092959272948</v>
       </c>
       <c r="C61">
-        <v>0.05270558015574056</v>
+        <v>-0.07459123548929918</v>
       </c>
       <c r="D61">
-        <v>-0.09431970825573291</v>
+        <v>0.07367544392718645</v>
       </c>
       <c r="E61">
-        <v>0.003249457740499784</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.03790478854771726</v>
+      </c>
+      <c r="F61">
+        <v>-0.01423217757510349</v>
+      </c>
+      <c r="G61">
+        <v>-0.03751949441326589</v>
+      </c>
+      <c r="H61">
+        <v>-0.08691935247920805</v>
+      </c>
+      <c r="I61">
+        <v>0.03655279771324739</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.006461234826542967</v>
+        <v>0.008956805874234759</v>
       </c>
       <c r="C63">
-        <v>0.02341637144078421</v>
+        <v>-0.03710264968610883</v>
       </c>
       <c r="D63">
-        <v>-0.09736643689226579</v>
+        <v>0.06826644675859107</v>
       </c>
       <c r="E63">
-        <v>-0.02184277693654962</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.05847729172833259</v>
+      </c>
+      <c r="F63">
+        <v>0.02592515014851005</v>
+      </c>
+      <c r="G63">
+        <v>-0.007722721645377432</v>
+      </c>
+      <c r="H63">
+        <v>-0.07055635332493027</v>
+      </c>
+      <c r="I63">
+        <v>0.0282471848772641</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.05465377999333312</v>
+        <v>0.01604420937548099</v>
       </c>
       <c r="C64">
-        <v>0.0837413940800021</v>
+        <v>-0.1047756746743959</v>
       </c>
       <c r="D64">
-        <v>-0.02696854914478053</v>
+        <v>0.01336250643595774</v>
       </c>
       <c r="E64">
-        <v>-0.01345349610815881</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.0251641004957824</v>
+      </c>
+      <c r="F64">
+        <v>0.01569839954114246</v>
+      </c>
+      <c r="G64">
+        <v>-0.05194106102161482</v>
+      </c>
+      <c r="H64">
+        <v>-0.07670250862829049</v>
+      </c>
+      <c r="I64">
+        <v>0.07871698483538886</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02551200871214533</v>
+        <v>0.02096736036583857</v>
       </c>
       <c r="C65">
-        <v>0.01456796626019766</v>
+        <v>-0.04394224884563057</v>
       </c>
       <c r="D65">
-        <v>-0.1127343724804625</v>
+        <v>0.1159157157690225</v>
       </c>
       <c r="E65">
-        <v>-0.01346339087421547</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.04365480546910703</v>
+      </c>
+      <c r="F65">
+        <v>-0.006326159187133021</v>
+      </c>
+      <c r="G65">
+        <v>-0.02986011837675503</v>
+      </c>
+      <c r="H65">
+        <v>-0.01520892521880302</v>
+      </c>
+      <c r="I65">
+        <v>0.05509047938735945</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02020302936577505</v>
+        <v>0.0008658219704362121</v>
       </c>
       <c r="C66">
-        <v>0.06638293483820029</v>
+        <v>-0.09622857432677577</v>
       </c>
       <c r="D66">
-        <v>-0.1236601852140784</v>
+        <v>0.118194824974397</v>
       </c>
       <c r="E66">
-        <v>0.01071616696330485</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.04159732732098853</v>
+      </c>
+      <c r="F66">
+        <v>-0.01095746209420416</v>
+      </c>
+      <c r="G66">
+        <v>0.002972434058251656</v>
+      </c>
+      <c r="H66">
+        <v>-0.06951195807696074</v>
+      </c>
+      <c r="I66">
+        <v>0.06966059163278876</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02399683008727281</v>
+        <v>0.02144146145055481</v>
       </c>
       <c r="C67">
-        <v>0.01999098258773085</v>
+        <v>-0.03594378032986617</v>
       </c>
       <c r="D67">
-        <v>-0.04727478837995445</v>
+        <v>0.04183494596971075</v>
       </c>
       <c r="E67">
-        <v>0.01785811784322679</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.01181222032320644</v>
+      </c>
+      <c r="F67">
+        <v>-0.02726175722852479</v>
+      </c>
+      <c r="G67">
+        <v>0.002036274201462373</v>
+      </c>
+      <c r="H67">
+        <v>-0.06950190077869574</v>
+      </c>
+      <c r="I67">
+        <v>0.001916023960459058</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2076313462220482</v>
+        <v>0.2749187120687139</v>
       </c>
       <c r="C68">
-        <v>-0.1524115994112623</v>
+        <v>0.06606899702591157</v>
       </c>
       <c r="D68">
-        <v>-0.03134821105577666</v>
+        <v>0.02689142587625109</v>
       </c>
       <c r="E68">
-        <v>-0.01183720102277125</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.004303060461020519</v>
+      </c>
+      <c r="F68">
+        <v>0.02610360212253334</v>
+      </c>
+      <c r="G68">
+        <v>0.07091316437177206</v>
+      </c>
+      <c r="H68">
+        <v>0.04749031168447225</v>
+      </c>
+      <c r="I68">
+        <v>-0.08804219510914632</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.0525129504760568</v>
+        <v>0.0158756101682185</v>
       </c>
       <c r="C69">
-        <v>0.1177108987168754</v>
+        <v>-0.1186338776271628</v>
       </c>
       <c r="D69">
-        <v>-0.07711120136258025</v>
+        <v>0.02729696995663949</v>
       </c>
       <c r="E69">
-        <v>-0.01703258936008189</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.008842261206497769</v>
+      </c>
+      <c r="F69">
+        <v>-0.008000720505565686</v>
+      </c>
+      <c r="G69">
+        <v>-0.0260168998475306</v>
+      </c>
+      <c r="H69">
+        <v>-0.04567494999238644</v>
+      </c>
+      <c r="I69">
+        <v>-0.04660407776644404</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2176740800228097</v>
+        <v>0.2760204299951853</v>
       </c>
       <c r="C71">
-        <v>-0.1756024337235682</v>
+        <v>0.07903095143053851</v>
       </c>
       <c r="D71">
-        <v>-0.0146483720214356</v>
+        <v>0.01545740492449933</v>
       </c>
       <c r="E71">
-        <v>-0.01116407990933426</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.001868156445065881</v>
+      </c>
+      <c r="F71">
+        <v>0.01989120956643952</v>
+      </c>
+      <c r="G71">
+        <v>0.03956997542464771</v>
+      </c>
+      <c r="H71">
+        <v>-0.01711463070165647</v>
+      </c>
+      <c r="I71">
+        <v>-0.1002957648703646</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.09944425731507775</v>
+        <v>0.05450190256412982</v>
       </c>
       <c r="C72">
-        <v>0.07977479395391208</v>
+        <v>-0.1273953572337234</v>
       </c>
       <c r="D72">
-        <v>-0.1119967029401638</v>
+        <v>0.05797575435589074</v>
       </c>
       <c r="E72">
-        <v>0.03301711896273491</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.06872411909422403</v>
+      </c>
+      <c r="F72">
+        <v>-0.02552575257625889</v>
+      </c>
+      <c r="G72">
+        <v>-0.04113995795977027</v>
+      </c>
+      <c r="H72">
+        <v>-0.04773431204638253</v>
+      </c>
+      <c r="I72">
+        <v>0.06112734276351511</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1702382599244416</v>
+        <v>0.1381219023528917</v>
       </c>
       <c r="C73">
-        <v>0.07200121762986073</v>
+        <v>-0.1504592945423102</v>
       </c>
       <c r="D73">
-        <v>-0.2873797406615637</v>
+        <v>0.1017506749736905</v>
       </c>
       <c r="E73">
-        <v>0.205492105376069</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.283823336188924</v>
+      </c>
+      <c r="F73">
+        <v>-0.3098325589297592</v>
+      </c>
+      <c r="G73">
+        <v>-0.3897415146220215</v>
+      </c>
+      <c r="H73">
+        <v>0.1805124610386278</v>
+      </c>
+      <c r="I73">
+        <v>0.004928827091058073</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1047416587997533</v>
+        <v>0.04804632333556472</v>
       </c>
       <c r="C74">
-        <v>0.1180539150594756</v>
+        <v>-0.1454940734635839</v>
       </c>
       <c r="D74">
-        <v>0.02011263561808283</v>
+        <v>-0.04406076326729879</v>
       </c>
       <c r="E74">
-        <v>-0.03724636990865473</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.0110157918243354</v>
+      </c>
+      <c r="F74">
+        <v>0.03469608133854057</v>
+      </c>
+      <c r="G74">
+        <v>-0.0067167791744755</v>
+      </c>
+      <c r="H74">
+        <v>0.01215285760905218</v>
+      </c>
+      <c r="I74">
+        <v>-0.07760264877864526</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2273242808726874</v>
+        <v>0.1032446465809405</v>
       </c>
       <c r="C75">
-        <v>0.2052138471727592</v>
+        <v>-0.2684078972099798</v>
       </c>
       <c r="D75">
-        <v>0.1047340360621191</v>
+        <v>-0.1358366513270635</v>
       </c>
       <c r="E75">
-        <v>0.03778577879078655</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.09168474135820555</v>
+      </c>
+      <c r="F75">
+        <v>-0.02682871493121014</v>
+      </c>
+      <c r="G75">
+        <v>0.1004909341670953</v>
+      </c>
+      <c r="H75">
+        <v>-0.02569295817740346</v>
+      </c>
+      <c r="I75">
+        <v>-0.06107050200939636</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1367815701247717</v>
+        <v>0.05951993541687059</v>
       </c>
       <c r="C76">
-        <v>0.141808423947646</v>
+        <v>-0.1822227999275577</v>
       </c>
       <c r="D76">
-        <v>-0.008297948358604002</v>
+        <v>-0.0434144413574823</v>
       </c>
       <c r="E76">
-        <v>-0.006374600272354406</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.02253327350162852</v>
+      </c>
+      <c r="F76">
+        <v>0.002220923275157713</v>
+      </c>
+      <c r="G76">
+        <v>0.03514143853502207</v>
+      </c>
+      <c r="H76">
+        <v>-0.03675726299757162</v>
+      </c>
+      <c r="I76">
+        <v>-0.0496413505011717</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.02028527584385506</v>
+        <v>0.0006088007916119026</v>
       </c>
       <c r="C77">
-        <v>0.06839751666288998</v>
+        <v>-0.1084397845316309</v>
       </c>
       <c r="D77">
-        <v>0.03239871723813359</v>
+        <v>0.3139848810768209</v>
       </c>
       <c r="E77">
-        <v>-0.1848149628090674</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.8435387120925778</v>
+      </c>
+      <c r="F77">
+        <v>-0.2171631635265639</v>
+      </c>
+      <c r="G77">
+        <v>-0.1988576038333137</v>
+      </c>
+      <c r="H77">
+        <v>0.1539508856792401</v>
+      </c>
+      <c r="I77">
+        <v>-0.01663467040268635</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02688434314616805</v>
+        <v>0.01597422808352301</v>
       </c>
       <c r="C78">
-        <v>0.07084150868408842</v>
+        <v>-0.09223205627932744</v>
       </c>
       <c r="D78">
-        <v>-0.1447035969408925</v>
+        <v>0.1115622368563423</v>
       </c>
       <c r="E78">
-        <v>-0.04750493163986198</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.06725019560670725</v>
+      </c>
+      <c r="F78">
+        <v>0.04379323050053826</v>
+      </c>
+      <c r="G78">
+        <v>0.03854793546979528</v>
+      </c>
+      <c r="H78">
+        <v>-0.03879388931039975</v>
+      </c>
+      <c r="I78">
+        <v>-0.1025977495004652</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.09410624226271001</v>
+        <v>0.03497662091777783</v>
       </c>
       <c r="C79">
-        <v>0.1795532046661076</v>
+        <v>-0.1954198499811201</v>
       </c>
       <c r="D79">
-        <v>0.1461760167656543</v>
+        <v>-0.08051357157632039</v>
       </c>
       <c r="E79">
-        <v>-0.821976389000065</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.05165087357263664</v>
+      </c>
+      <c r="F79">
+        <v>0.7802653827266837</v>
+      </c>
+      <c r="G79">
+        <v>-0.3712857526992153</v>
+      </c>
+      <c r="H79">
+        <v>0.327553329846427</v>
+      </c>
+      <c r="I79">
+        <v>0.1021858865198902</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.003525670557855951</v>
+        <v>0.004078657900681878</v>
       </c>
       <c r="C80">
-        <v>0.0443206568841892</v>
+        <v>-0.04608232611748966</v>
       </c>
       <c r="D80">
-        <v>-0.0513139400284318</v>
+        <v>0.04042588143612753</v>
       </c>
       <c r="E80">
-        <v>0.006722654975896376</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.04657851141849553</v>
+      </c>
+      <c r="F80">
+        <v>0.004733923138730547</v>
+      </c>
+      <c r="G80">
+        <v>0.006431890208122524</v>
+      </c>
+      <c r="H80">
+        <v>-0.03058268366159992</v>
+      </c>
+      <c r="I80">
+        <v>-0.07562887206058125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1165157666900028</v>
+        <v>0.04224892569238058</v>
       </c>
       <c r="C81">
-        <v>0.1375755412432098</v>
+        <v>-0.1670274491163805</v>
       </c>
       <c r="D81">
-        <v>0.07505611194122826</v>
+        <v>-0.08164121305988369</v>
       </c>
       <c r="E81">
-        <v>-0.04748669893771461</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.04823195703286286</v>
+      </c>
+      <c r="F81">
+        <v>0.06398937820339357</v>
+      </c>
+      <c r="G81">
+        <v>0.04779804063231015</v>
+      </c>
+      <c r="H81">
+        <v>-0.07696349625272228</v>
+      </c>
+      <c r="I81">
+        <v>-0.08406417344226433</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2445179484143406</v>
+        <v>0.08718879552361453</v>
       </c>
       <c r="C82">
-        <v>0.3026155383792251</v>
+        <v>-0.3198710481227327</v>
       </c>
       <c r="D82">
-        <v>0.2033276941723513</v>
+        <v>-0.2447336863464972</v>
       </c>
       <c r="E82">
-        <v>0.1619317856407969</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.06237508668199576</v>
+      </c>
+      <c r="F82">
+        <v>-0.1094005438000834</v>
+      </c>
+      <c r="G82">
+        <v>0.0993291448328788</v>
+      </c>
+      <c r="H82">
+        <v>-0.11170431534065</v>
+      </c>
+      <c r="I82">
+        <v>-0.03702022297861226</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.009636133057179593</v>
+        <v>-0.01303145723951605</v>
       </c>
       <c r="C83">
-        <v>0.05073342838278446</v>
+        <v>-0.02634816669128519</v>
       </c>
       <c r="D83">
-        <v>0.002762791586075302</v>
+        <v>0.0306976446350398</v>
       </c>
       <c r="E83">
-        <v>-0.05458847781607096</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.07936760318161926</v>
+      </c>
+      <c r="F83">
+        <v>0.0732397273302447</v>
+      </c>
+      <c r="G83">
+        <v>0.02973376258550333</v>
+      </c>
+      <c r="H83">
+        <v>-0.1071821569012571</v>
+      </c>
+      <c r="I83">
+        <v>-0.6720760588376146</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.001399171964805979</v>
+        <v>-0.00208450039807054</v>
       </c>
       <c r="C84">
-        <v>-5.084787186772475e-05</v>
+        <v>-0.01642077148099565</v>
       </c>
       <c r="D84">
-        <v>-0.01026658202475981</v>
+        <v>0.04245767516550644</v>
       </c>
       <c r="E84">
-        <v>0.001070423615934223</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.001678521063598782</v>
+      </c>
+      <c r="F84">
+        <v>0.03286456139543779</v>
+      </c>
+      <c r="G84">
+        <v>0.0489348822909903</v>
+      </c>
+      <c r="H84">
+        <v>-0.032250535205223</v>
+      </c>
+      <c r="I84">
+        <v>0.06617006047493797</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1373623812290257</v>
+        <v>0.05584593934326847</v>
       </c>
       <c r="C85">
-        <v>0.1415277521856333</v>
+        <v>-0.1819177008759221</v>
       </c>
       <c r="D85">
-        <v>0.04441558185949196</v>
+        <v>-0.09725029470009149</v>
       </c>
       <c r="E85">
-        <v>-0.02415799328020082</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.0007153196731973512</v>
+      </c>
+      <c r="F85">
+        <v>0.07327964654167715</v>
+      </c>
+      <c r="G85">
+        <v>0.02197712769020525</v>
+      </c>
+      <c r="H85">
+        <v>0.00365615751183565</v>
+      </c>
+      <c r="I85">
+        <v>-0.06296416718251753</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01586016024755553</v>
+        <v>0.01169198292167967</v>
       </c>
       <c r="C86">
-        <v>0.01592749127672837</v>
+        <v>-0.03620179846012404</v>
       </c>
       <c r="D86">
-        <v>-0.08526220154845764</v>
+        <v>0.1033833519518535</v>
       </c>
       <c r="E86">
-        <v>-0.04968953103556472</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.01607983569046876</v>
+      </c>
+      <c r="F86">
+        <v>-0.002916762195051782</v>
+      </c>
+      <c r="G86">
+        <v>-0.01724368068261175</v>
+      </c>
+      <c r="H86">
+        <v>-0.02267591330346443</v>
+      </c>
+      <c r="I86">
+        <v>-0.06217960113127047</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02014685483673515</v>
+        <v>0.01281134386835156</v>
       </c>
       <c r="C87">
-        <v>0.02711370629528666</v>
+        <v>-0.06048735620879585</v>
       </c>
       <c r="D87">
-        <v>-0.1306784400512337</v>
+        <v>0.1401119401047411</v>
       </c>
       <c r="E87">
-        <v>-0.05598596248557992</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.01351669362440907</v>
+      </c>
+      <c r="F87">
+        <v>0.04141498150009043</v>
+      </c>
+      <c r="G87">
+        <v>0.0463811899093421</v>
+      </c>
+      <c r="H87">
+        <v>-0.05640807643982549</v>
+      </c>
+      <c r="I87">
+        <v>-0.006411492499566221</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05142311798125429</v>
+        <v>0.03236502123071128</v>
       </c>
       <c r="C88">
-        <v>0.04428986696281737</v>
+        <v>-0.06769327679275684</v>
       </c>
       <c r="D88">
-        <v>-0.02468265182828995</v>
+        <v>0.01601960826423438</v>
       </c>
       <c r="E88">
-        <v>-0.03071933708734166</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.02797141809299639</v>
+      </c>
+      <c r="F88">
+        <v>0.01996478476674611</v>
+      </c>
+      <c r="G88">
+        <v>-0.01324873351904399</v>
+      </c>
+      <c r="H88">
+        <v>-0.01194577369836957</v>
+      </c>
+      <c r="I88">
+        <v>-0.003331643754434014</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3280521776023376</v>
+        <v>0.4082534176967183</v>
       </c>
       <c r="C89">
-        <v>-0.3188314193564618</v>
+        <v>0.1495353016503264</v>
       </c>
       <c r="D89">
-        <v>-0.007507557007857484</v>
+        <v>0.0312807240244737</v>
       </c>
       <c r="E89">
-        <v>-0.09869808783028806</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.05533221097177739</v>
+      </c>
+      <c r="F89">
+        <v>0.0664321957445845</v>
+      </c>
+      <c r="G89">
+        <v>0.01112350616218624</v>
+      </c>
+      <c r="H89">
+        <v>-0.1226786165583418</v>
+      </c>
+      <c r="I89">
+        <v>0.1553436798572891</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2605311103588214</v>
+        <v>0.3223719911314702</v>
       </c>
       <c r="C90">
-        <v>-0.2329820172154477</v>
+        <v>0.1028883646939494</v>
       </c>
       <c r="D90">
-        <v>-0.0379730403383911</v>
+        <v>0.03303308414962215</v>
       </c>
       <c r="E90">
-        <v>0.01280857792336827</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.01025290544554869</v>
+      </c>
+      <c r="F90">
+        <v>-0.007136162136763447</v>
+      </c>
+      <c r="G90">
+        <v>0.0659530657226597</v>
+      </c>
+      <c r="H90">
+        <v>0.00900795035330617</v>
+      </c>
+      <c r="I90">
+        <v>-0.0810425811977038</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1495916874512541</v>
+        <v>0.06425373444166087</v>
       </c>
       <c r="C91">
-        <v>0.1892998939483927</v>
+        <v>-0.2071247623713429</v>
       </c>
       <c r="D91">
-        <v>0.09818332445161038</v>
+        <v>-0.109083990462217</v>
       </c>
       <c r="E91">
-        <v>-0.07895295965379043</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.05733784310805889</v>
+      </c>
+      <c r="F91">
+        <v>0.06826125052397289</v>
+      </c>
+      <c r="G91">
+        <v>0.005871047191517246</v>
+      </c>
+      <c r="H91">
+        <v>0.006069956713930015</v>
+      </c>
+      <c r="I91">
+        <v>-0.08309226898162088</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2472794645194436</v>
+        <v>0.3399302665635172</v>
       </c>
       <c r="C92">
-        <v>-0.2563801764493882</v>
+        <v>0.1390430523127113</v>
       </c>
       <c r="D92">
-        <v>0.06069997383952998</v>
+        <v>0.003919033149339158</v>
       </c>
       <c r="E92">
-        <v>-0.03796258768920052</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.06332482639283137</v>
+      </c>
+      <c r="F92">
+        <v>0.03071920651105154</v>
+      </c>
+      <c r="G92">
+        <v>0.03026507768513914</v>
+      </c>
+      <c r="H92">
+        <v>-0.01388919951683363</v>
+      </c>
+      <c r="I92">
+        <v>0.2382310042225474</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2877287490067972</v>
+        <v>0.3349950952913248</v>
       </c>
       <c r="C93">
-        <v>-0.2442211265845731</v>
+        <v>0.1106128392198707</v>
       </c>
       <c r="D93">
-        <v>-0.01016567304794502</v>
+        <v>-0.01769703296230336</v>
       </c>
       <c r="E93">
-        <v>0.0004808159360671276</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.02722172190664341</v>
+      </c>
+      <c r="F93">
+        <v>0.007420236247647085</v>
+      </c>
+      <c r="G93">
+        <v>-0.01120666141868535</v>
+      </c>
+      <c r="H93">
+        <v>0.006228733803353818</v>
+      </c>
+      <c r="I93">
+        <v>-0.02727225447266247</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.283709114542476</v>
+        <v>0.1225960172963078</v>
       </c>
       <c r="C94">
-        <v>0.2814649165192822</v>
+        <v>-0.3480439024670549</v>
       </c>
       <c r="D94">
-        <v>0.3239864169684716</v>
+        <v>-0.3574071311184273</v>
       </c>
       <c r="E94">
-        <v>0.2319631025352531</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.0562520733654996</v>
+      </c>
+      <c r="F94">
+        <v>-0.1074858769444741</v>
+      </c>
+      <c r="G94">
+        <v>0.3239881275688304</v>
+      </c>
+      <c r="H94">
+        <v>0.03055205132509025</v>
+      </c>
+      <c r="I94">
+        <v>0.2577916104089263</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.01405391228211708</v>
+        <v>0.01660071314910256</v>
       </c>
       <c r="C95">
-        <v>0.03705645205820608</v>
+        <v>-0.0624332733307103</v>
       </c>
       <c r="D95">
-        <v>0.001504726194009197</v>
+        <v>0.09796503006302039</v>
       </c>
       <c r="E95">
-        <v>-0.07428002790420765</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.1628234585386782</v>
+      </c>
+      <c r="F95">
+        <v>-0.01771210412887015</v>
+      </c>
+      <c r="G95">
+        <v>-0.08940511575937143</v>
+      </c>
+      <c r="H95">
+        <v>-0.3280769732480155</v>
+      </c>
+      <c r="I95">
+        <v>0.3794456486977328</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001140377247180889</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0008584718076165834</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0006457685560757572</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.003647461302905924</v>
+      </c>
+      <c r="F97">
+        <v>0.0005287394924947251</v>
+      </c>
+      <c r="G97">
+        <v>0.001052756826541262</v>
+      </c>
+      <c r="H97">
+        <v>-0.004205118599324892</v>
+      </c>
+      <c r="I97">
+        <v>0.002290511871707792</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1438623064297749</v>
+        <v>0.1163661851850475</v>
       </c>
       <c r="C98">
-        <v>0.09287202221026386</v>
+        <v>-0.1567110374193583</v>
       </c>
       <c r="D98">
-        <v>-0.1677139878814273</v>
+        <v>0.06225014073862389</v>
       </c>
       <c r="E98">
-        <v>0.1748516180385926</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.2000377659212005</v>
+      </c>
+      <c r="F98">
+        <v>-0.247124727681326</v>
+      </c>
+      <c r="G98">
+        <v>-0.278780637176843</v>
+      </c>
+      <c r="H98">
+        <v>0.1922734476198049</v>
+      </c>
+      <c r="I98">
+        <v>-0.01540721778653261</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.001270134558904356</v>
+        <v>0.001589990584861682</v>
       </c>
       <c r="C101">
-        <v>0.0192587699060374</v>
+        <v>-0.03564875613408698</v>
       </c>
       <c r="D101">
-        <v>-0.09460242254321309</v>
+        <v>0.1019633411759378</v>
       </c>
       <c r="E101">
-        <v>-0.02538436414157151</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.05745781096629418</v>
+      </c>
+      <c r="F101">
+        <v>0.03993576710181282</v>
+      </c>
+      <c r="G101">
+        <v>-0.01384302854033525</v>
+      </c>
+      <c r="H101">
+        <v>-0.1396926441936504</v>
+      </c>
+      <c r="I101">
+        <v>0.01483117593302375</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1015133691423235</v>
+        <v>0.02677370915934458</v>
       </c>
       <c r="C102">
-        <v>0.161791372393202</v>
+        <v>-0.1482702003678147</v>
       </c>
       <c r="D102">
-        <v>0.06168279122204861</v>
+        <v>-0.09949229813828127</v>
       </c>
       <c r="E102">
-        <v>0.06006294382230454</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03563007693297226</v>
+      </c>
+      <c r="F102">
+        <v>-0.06443177453596008</v>
+      </c>
+      <c r="G102">
+        <v>-0.004916793116596541</v>
+      </c>
+      <c r="H102">
+        <v>-0.04602474127249601</v>
+      </c>
+      <c r="I102">
+        <v>-0.02365470584840584</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
